--- a/data_for_github/messy_excel_doc.xlsx
+++ b/data_for_github/messy_excel_doc.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CMADSEN\Downloads\LocalR\learning_or_teaching\R_Tutorials\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CMADSEN\Downloads\LocalR\learning_or_teaching\R_Tutorials\data_for_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0738D164-F498-4BFC-810A-16E2F8E6F04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9381A692-884A-470C-8451-5282A3F47B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TOR" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="TOR" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="35">
   <si>
     <t>Fish species presence and life stage information</t>
   </si>
@@ -127,6 +128,9 @@
   </si>
   <si>
     <t>Wet Creek</t>
+  </si>
+  <si>
+    <t>I am a decoy sheet - you don't want the info from this sheet!</t>
   </si>
 </sst>
 </file>
@@ -590,17 +594,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -610,6 +613,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1185,14 +1189,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB65BD9-2AFF-4904-878F-C1ED786130DA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A8:AB137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:A52"/>
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1408,7 +1430,7 @@
       <c r="A14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="27"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -1438,7 +1460,7 @@
       <c r="A15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="27"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -1468,7 +1490,7 @@
       <c r="A16" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="27"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -1498,7 +1520,7 @@
       <c r="A17" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="27"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
@@ -1528,7 +1550,7 @@
       <c r="A18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="37"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
@@ -1558,30 +1580,30 @@
       <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="40"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="39"/>
       <c r="Z19" s="6"/>
       <c r="AB19" s="16"/>
     </row>
@@ -1589,7 +1611,7 @@
       <c r="A20" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="27"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
@@ -1619,7 +1641,7 @@
       <c r="A21" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
@@ -1649,7 +1671,7 @@
       <c r="A22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="37"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
@@ -1679,7 +1701,7 @@
       <c r="A23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="37"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -1709,7 +1731,7 @@
       <c r="A24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="27"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
@@ -1739,7 +1761,7 @@
       <c r="A25" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="37"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
@@ -1770,36 +1792,36 @@
       <c r="A26" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="40"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="39"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="27"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
@@ -1830,7 +1852,7 @@
       <c r="A28" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="27"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -1860,7 +1882,7 @@
       <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="27"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
@@ -1920,7 +1942,7 @@
       <c r="A31" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="37"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
@@ -1950,37 +1972,37 @@
       <c r="A32" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
-      <c r="W32" s="39"/>
-      <c r="X32" s="39"/>
-      <c r="Y32" s="40"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="39"/>
       <c r="Z32" s="6"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="27"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -2010,7 +2032,7 @@
       <c r="A34" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="27"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
@@ -2040,7 +2062,7 @@
       <c r="A35" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="27"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -2098,7 +2120,7 @@
       <c r="A37" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="27"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
@@ -2127,16 +2149,16 @@
       <c r="A38" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
       <c r="L38" s="24"/>
       <c r="M38" s="24"/>
       <c r="N38" s="24"/>
@@ -2147,10 +2169,10 @@
       <c r="S38" s="24"/>
       <c r="T38" s="24"/>
       <c r="U38" s="24"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="31"/>
+      <c r="V38" s="27"/>
+      <c r="W38" s="27"/>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="28"/>
     </row>
     <row r="39" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="60" t="s">
@@ -2384,7 +2406,7 @@
       <c r="A54" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="27"/>
+      <c r="B54" s="29"/>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
@@ -2413,7 +2435,7 @@
       <c r="A55" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="27"/>
+      <c r="B55" s="29"/>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
@@ -2442,7 +2464,7 @@
       <c r="A56" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B56" s="27"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22"/>
@@ -2471,7 +2493,7 @@
       <c r="A57" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="27"/>
+      <c r="B57" s="29"/>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
       <c r="E57" s="22"/>
@@ -2500,7 +2522,7 @@
       <c r="A58" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="27"/>
+      <c r="B58" s="29"/>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
@@ -2529,7 +2551,7 @@
       <c r="A59" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B59" s="37"/>
+      <c r="B59" s="40"/>
       <c r="C59" s="21"/>
       <c r="D59" s="21"/>
       <c r="E59" s="21"/>
@@ -2558,36 +2580,36 @@
       <c r="A60" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B60" s="38"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="39"/>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="39"/>
-      <c r="R60" s="39"/>
-      <c r="S60" s="39"/>
-      <c r="T60" s="39"/>
-      <c r="U60" s="39"/>
-      <c r="V60" s="39"/>
-      <c r="W60" s="39"/>
-      <c r="X60" s="39"/>
-      <c r="Y60" s="40"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="38"/>
+      <c r="P60" s="38"/>
+      <c r="Q60" s="38"/>
+      <c r="R60" s="38"/>
+      <c r="S60" s="38"/>
+      <c r="T60" s="38"/>
+      <c r="U60" s="38"/>
+      <c r="V60" s="38"/>
+      <c r="W60" s="38"/>
+      <c r="X60" s="38"/>
+      <c r="Y60" s="39"/>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="27"/>
+      <c r="B61" s="29"/>
       <c r="C61" s="22"/>
       <c r="D61" s="22"/>
       <c r="E61" s="22"/>
@@ -2618,7 +2640,7 @@
       <c r="A62" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="27"/>
+      <c r="B62" s="29"/>
       <c r="C62" s="22"/>
       <c r="D62" s="22"/>
       <c r="E62" s="22"/>
@@ -2649,7 +2671,7 @@
       <c r="A63" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="27"/>
+      <c r="B63" s="29"/>
       <c r="C63" s="22"/>
       <c r="D63" s="22"/>
       <c r="E63" s="22"/>
@@ -2680,7 +2702,7 @@
       <c r="A64" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B64" s="27"/>
+      <c r="B64" s="29"/>
       <c r="C64" s="22"/>
       <c r="D64" s="22"/>
       <c r="E64" s="22"/>
@@ -2711,7 +2733,7 @@
       <c r="A65" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="27"/>
+      <c r="B65" s="29"/>
       <c r="C65" s="22"/>
       <c r="D65" s="22"/>
       <c r="E65" s="22"/>
@@ -2741,7 +2763,7 @@
       <c r="A66" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B66" s="37"/>
+      <c r="B66" s="40"/>
       <c r="C66" s="21"/>
       <c r="D66" s="21"/>
       <c r="E66" s="21"/>
@@ -2771,37 +2793,37 @@
       <c r="A67" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B67" s="38"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="39"/>
-      <c r="M67" s="39"/>
-      <c r="N67" s="39"/>
-      <c r="O67" s="39"/>
-      <c r="P67" s="39"/>
-      <c r="Q67" s="39"/>
-      <c r="R67" s="39"/>
-      <c r="S67" s="39"/>
-      <c r="T67" s="39"/>
-      <c r="U67" s="39"/>
-      <c r="V67" s="39"/>
-      <c r="W67" s="39"/>
-      <c r="X67" s="39"/>
-      <c r="Y67" s="40"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="38"/>
+      <c r="M67" s="38"/>
+      <c r="N67" s="38"/>
+      <c r="O67" s="38"/>
+      <c r="P67" s="38"/>
+      <c r="Q67" s="38"/>
+      <c r="R67" s="38"/>
+      <c r="S67" s="38"/>
+      <c r="T67" s="38"/>
+      <c r="U67" s="38"/>
+      <c r="V67" s="38"/>
+      <c r="W67" s="38"/>
+      <c r="X67" s="38"/>
+      <c r="Y67" s="39"/>
       <c r="Z67" s="6"/>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A68" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B68" s="27"/>
+      <c r="B68" s="29"/>
       <c r="C68" s="22"/>
       <c r="D68" s="22"/>
       <c r="E68" s="22"/>
@@ -2831,7 +2853,7 @@
       <c r="A69" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B69" s="27"/>
+      <c r="B69" s="29"/>
       <c r="C69" s="22"/>
       <c r="D69" s="22"/>
       <c r="E69" s="22"/>
@@ -2861,7 +2883,7 @@
       <c r="A70" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="27"/>
+      <c r="B70" s="29"/>
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
       <c r="E70" s="22"/>
@@ -2922,7 +2944,7 @@
       <c r="A72" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B72" s="37"/>
+      <c r="B72" s="40"/>
       <c r="C72" s="21"/>
       <c r="D72" s="21"/>
       <c r="E72" s="21"/>
@@ -2952,36 +2974,36 @@
       <c r="A73" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B73" s="38"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="39"/>
-      <c r="J73" s="39"/>
-      <c r="K73" s="39"/>
-      <c r="L73" s="39"/>
-      <c r="M73" s="39"/>
-      <c r="N73" s="39"/>
-      <c r="O73" s="39"/>
-      <c r="P73" s="39"/>
-      <c r="Q73" s="39"/>
-      <c r="R73" s="39"/>
-      <c r="S73" s="39"/>
-      <c r="T73" s="39"/>
-      <c r="U73" s="39"/>
-      <c r="V73" s="39"/>
-      <c r="W73" s="39"/>
-      <c r="X73" s="39"/>
-      <c r="Y73" s="40"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="38"/>
+      <c r="M73" s="38"/>
+      <c r="N73" s="38"/>
+      <c r="O73" s="38"/>
+      <c r="P73" s="38"/>
+      <c r="Q73" s="38"/>
+      <c r="R73" s="38"/>
+      <c r="S73" s="38"/>
+      <c r="T73" s="38"/>
+      <c r="U73" s="38"/>
+      <c r="V73" s="38"/>
+      <c r="W73" s="38"/>
+      <c r="X73" s="38"/>
+      <c r="Y73" s="39"/>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A74" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B74" s="27"/>
+      <c r="B74" s="29"/>
       <c r="C74" s="22"/>
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
@@ -3012,7 +3034,7 @@
       <c r="A75" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B75" s="27"/>
+      <c r="B75" s="29"/>
       <c r="C75" s="22"/>
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
@@ -3042,7 +3064,7 @@
       <c r="A76" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B76" s="27"/>
+      <c r="B76" s="29"/>
       <c r="C76" s="22"/>
       <c r="D76" s="42"/>
       <c r="E76" s="42"/>
@@ -3072,12 +3094,12 @@
       <c r="A77" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B77" s="28"/>
-      <c r="C77" s="29"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="27"/>
       <c r="D77" s="43"/>
       <c r="E77" s="43"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
       <c r="H77" s="22"/>
       <c r="I77" s="22"/>
       <c r="J77" s="22"/>
@@ -3102,7 +3124,7 @@
       <c r="A78" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B78" s="27"/>
+      <c r="B78" s="29"/>
       <c r="C78" s="22"/>
       <c r="D78" s="63"/>
       <c r="E78" s="63"/>
@@ -3132,16 +3154,16 @@
       <c r="A79" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B79" s="28"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="30"/>
-      <c r="I79" s="30"/>
-      <c r="J79" s="30"/>
-      <c r="K79" s="30"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="31"/>
+      <c r="K79" s="31"/>
       <c r="L79" s="24"/>
       <c r="M79" s="24"/>
       <c r="N79" s="24"/>
@@ -3152,10 +3174,10 @@
       <c r="S79" s="24"/>
       <c r="T79" s="24"/>
       <c r="U79" s="24"/>
-      <c r="V79" s="29"/>
-      <c r="W79" s="29"/>
-      <c r="X79" s="29"/>
-      <c r="Y79" s="31"/>
+      <c r="V79" s="27"/>
+      <c r="W79" s="27"/>
+      <c r="X79" s="27"/>
+      <c r="Y79" s="28"/>
       <c r="Z79" s="6"/>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.3">
@@ -3218,6 +3240,12 @@
     <row r="137" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="575">
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="X68:Y68"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
     <mergeCell ref="T77:U77"/>
     <mergeCell ref="V77:W77"/>
     <mergeCell ref="X77:Y77"/>
@@ -3234,15 +3262,11 @@
     <mergeCell ref="H78:I78"/>
     <mergeCell ref="J78:K78"/>
     <mergeCell ref="L78:M78"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="V68:W68"/>
-    <mergeCell ref="X68:Y68"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="T79:U79"/>
+    <mergeCell ref="V79:W79"/>
     <mergeCell ref="T56:U56"/>
     <mergeCell ref="X64:Y64"/>
     <mergeCell ref="B67:Y67"/>
@@ -3357,6 +3381,9 @@
     <mergeCell ref="T28:U28"/>
     <mergeCell ref="V28:W28"/>
     <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
     <mergeCell ref="V17:W17"/>
     <mergeCell ref="X17:Y17"/>
     <mergeCell ref="B19:Y19"/>
@@ -3376,6 +3403,11 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
     <mergeCell ref="V16:W16"/>
     <mergeCell ref="X16:Y16"/>
     <mergeCell ref="N16:O16"/>
@@ -3404,6 +3436,9 @@
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="R15:S15"/>
     <mergeCell ref="T15:U15"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
     <mergeCell ref="A8:Y8"/>
     <mergeCell ref="A9:Y9"/>
     <mergeCell ref="A10:A11"/>
@@ -3420,14 +3455,6 @@
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="R11:S11"/>
     <mergeCell ref="T11:U11"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="T79:U79"/>
-    <mergeCell ref="V79:W79"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
     <mergeCell ref="F79:G79"/>
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="J79:K79"/>
@@ -3517,6 +3544,9 @@
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
     <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N68:O68"/>
     <mergeCell ref="V64:W64"/>
     <mergeCell ref="P62:Q62"/>
     <mergeCell ref="R62:S62"/>
@@ -3531,6 +3561,9 @@
     <mergeCell ref="R66:S66"/>
     <mergeCell ref="T66:U66"/>
     <mergeCell ref="V66:W66"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="V68:W68"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="F64:G64"/>
@@ -3597,35 +3630,15 @@
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
     <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F22:G22"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:I17"/>
@@ -3635,28 +3648,48 @@
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
     <mergeCell ref="T20:U20"/>
     <mergeCell ref="V20:W20"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="P25:Q25"/>
     <mergeCell ref="N18:O18"/>
@@ -3670,20 +3703,6 @@
     <mergeCell ref="V25:W25"/>
     <mergeCell ref="X25:Y25"/>
     <mergeCell ref="R25:S25"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="V24:W24"/>
     <mergeCell ref="X24:Y24"/>
     <mergeCell ref="T23:U23"/>
     <mergeCell ref="V23:W23"/>
@@ -3698,9 +3717,16 @@
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="L29:M29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
     <mergeCell ref="N30:O30"/>
     <mergeCell ref="P30:Q30"/>
     <mergeCell ref="R30:S30"/>
@@ -3708,15 +3734,8 @@
     <mergeCell ref="T29:U29"/>
     <mergeCell ref="V29:W29"/>
     <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="T27:U27"/>
     <mergeCell ref="T30:U30"/>
     <mergeCell ref="V30:W30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
     <mergeCell ref="N29:O29"/>
     <mergeCell ref="P29:Q29"/>
     <mergeCell ref="R29:S29"/>
@@ -3729,6 +3748,9 @@
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="J31:K31"/>
     <mergeCell ref="L31:M31"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
     <mergeCell ref="T31:U31"/>
     <mergeCell ref="V31:W31"/>
     <mergeCell ref="P33:Q33"/>
